--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44376,6 +44376,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>1200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44411,6 +44411,43 @@
         <v>1200</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44448,6 +44448,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44485,6 +44485,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44522,6 +44522,41 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>3700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44557,6 +44557,43 @@
         <v>3700</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44594,6 +44594,41 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>9900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44629,6 +44629,41 @@
         <v>9900</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>11900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44664,6 +44664,41 @@
         <v>11900</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44699,6 +44699,41 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>2200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44734,6 +44734,41 @@
         <v>2200</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>20800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44769,6 +44769,41 @@
         <v>20800</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>52000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44804,6 +44804,76 @@
         <v>52000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>54400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44874,6 +44874,76 @@
         <v>54400</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44944,6 +44944,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>21200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44979,6 +44979,41 @@
         <v>21200</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>34700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45014,6 +45014,41 @@
         <v>34700</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>12100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45049,6 +45049,41 @@
         <v>12100</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>23500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45084,6 +45084,76 @@
         <v>23500</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>32600</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>24500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45154,6 +45154,41 @@
         <v>24500</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>21300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45189,6 +45189,41 @@
         <v>21300</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>53100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2105"/>
+  <dimension ref="A1:I2106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75499,6 +75499,41 @@
         <v>53100</v>
       </c>
     </row>
+    <row r="2106">
+      <c r="A2106" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2106" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D2106" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E2106" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F2106" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G2106" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H2106" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="I2106" t="n">
+        <v>54200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2106"/>
+  <dimension ref="A1:I2107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75534,6 +75534,41 @@
         <v>54200</v>
       </c>
     </row>
+    <row r="2107">
+      <c r="A2107" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2107" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D2107" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E2107" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F2107" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="G2107" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H2107" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I2107" t="n">
+        <v>116400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2107"/>
+  <dimension ref="A1:I2108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75569,6 +75569,41 @@
         <v>116400</v>
       </c>
     </row>
+    <row r="2108">
+      <c r="A2108" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2108" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D2108" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E2108" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F2108" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G2108" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="H2108" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="I2108" t="n">
+        <v>27500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2108"/>
+  <dimension ref="A1:I2109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75604,6 +75604,41 @@
         <v>27500</v>
       </c>
     </row>
+    <row r="2109">
+      <c r="A2109" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2109" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D2109" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E2109" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F2109" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G2109" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="H2109" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="I2109" t="n">
+        <v>116100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2109"/>
+  <dimension ref="A1:I2110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75639,6 +75639,41 @@
         <v>116100</v>
       </c>
     </row>
+    <row r="2110">
+      <c r="A2110" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2110" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D2110" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E2110" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F2110" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G2110" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2110" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I2110" t="n">
+        <v>10500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2110"/>
+  <dimension ref="A1:I2111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75674,6 +75674,43 @@
         <v>10500</v>
       </c>
     </row>
+    <row r="2111">
+      <c r="A2111" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2111" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2111" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D2111" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E2111" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F2111" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G2111" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H2111" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I2111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2111"/>
+  <dimension ref="A1:I2112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75711,6 +75711,41 @@
         </is>
       </c>
     </row>
+    <row r="2112">
+      <c r="A2112" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2112" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2112" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D2112" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E2112" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2112" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G2112" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2112" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I2112" t="n">
+        <v>3200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2112"/>
+  <dimension ref="A1:I2113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75746,6 +75746,41 @@
         <v>3200</v>
       </c>
     </row>
+    <row r="2113">
+      <c r="A2113" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2113" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D2113" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E2113" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="F2113" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G2113" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="H2113" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="I2113" t="n">
+        <v>5900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2113"/>
+  <dimension ref="A1:I2114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75781,6 +75781,41 @@
         <v>5900</v>
       </c>
     </row>
+    <row r="2114">
+      <c r="A2114" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2114" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2114" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D2114" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E2114" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F2114" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G2114" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H2114" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I2114" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2114"/>
+  <dimension ref="A1:I2115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75816,6 +75816,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="2115">
+      <c r="A2115" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2115" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2115" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D2115" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E2115" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F2115" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G2115" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="H2115" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="I2115" t="n">
+        <v>4500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2115"/>
+  <dimension ref="A1:I2116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75851,6 +75851,41 @@
         <v>4500</v>
       </c>
     </row>
+    <row r="2116">
+      <c r="A2116" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2116" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D2116" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E2116" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="F2116" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="G2116" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="H2116" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="I2116" t="n">
+        <v>1300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2116"/>
+  <dimension ref="A1:I2117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75886,6 +75886,43 @@
         <v>1300</v>
       </c>
     </row>
+    <row r="2117">
+      <c r="A2117" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2117" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2117" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D2117" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E2117" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="F2117" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="G2117" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="H2117" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="I2117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2117"/>
+  <dimension ref="A1:I2118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75923,6 +75923,43 @@
         </is>
       </c>
     </row>
+    <row r="2118">
+      <c r="A2118" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2118" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2118" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D2118" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E2118" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="F2118" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="G2118" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="H2118" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="I2118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2118"/>
+  <dimension ref="A1:I2119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75960,6 +75960,43 @@
         </is>
       </c>
     </row>
+    <row r="2119">
+      <c r="A2119" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2119" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2119" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D2119" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E2119" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="F2119" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="G2119" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="H2119" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="I2119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2305.xlsx
+++ b/data/2305.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2119"/>
+  <dimension ref="A1:I2120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75997,6 +75997,43 @@
         </is>
       </c>
     </row>
+    <row r="2120">
+      <c r="A2120" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2120" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2120" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="D2120" t="inlineStr">
+        <is>
+          <t>AYER</t>
+        </is>
+      </c>
+      <c r="E2120" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="F2120" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="G2120" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="H2120" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="I2120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
